--- a/info/opcodes.xlsx
+++ b/info/opcodes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="356">
   <si>
     <t>Number
 </t>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Branch</t>
+  </si>
+  <si>
+    <t>Modify</t>
   </si>
   <si>
     <t>$00</t>
@@ -1187,19 +1190,22 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>0.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3">
         <v>1.0</v>
@@ -1208,7 +1214,7 @@
         <v>7.0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -1216,13 +1222,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3">
         <v>2.0</v>
@@ -1231,7 +1237,7 @@
         <v>6.0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1239,13 +1245,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -1253,13 +1259,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1267,13 +1273,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1281,13 +1287,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3">
         <v>2.0</v>
@@ -1296,7 +1302,7 @@
         <v>3.0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1304,13 +1310,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E8" s="3">
         <v>2.0</v>
@@ -1319,7 +1325,7 @@
         <v>5.0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1327,13 +1333,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -1341,13 +1347,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3">
         <v>1.0</v>
@@ -1356,7 +1362,7 @@
         <v>3.0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -1364,13 +1370,13 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3">
         <v>2.0</v>
@@ -1379,7 +1385,7 @@
         <v>2.0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -1387,13 +1393,13 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3">
         <v>1.0</v>
@@ -1402,7 +1408,7 @@
         <v>2.0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1410,13 +1416,13 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1424,13 +1430,13 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1438,13 +1444,13 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="3">
         <v>3.0</v>
@@ -1453,7 +1459,10 @@
         <v>4.0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -1461,13 +1470,13 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E16" s="3">
         <v>3.0</v>
@@ -1476,7 +1485,10 @@
         <v>6.0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -1484,13 +1496,13 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -1498,13 +1510,13 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3">
         <v>2.0</v>
@@ -1516,7 +1528,7 @@
         <v>2.0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" s="3">
         <v>1.0</v>
@@ -1527,13 +1539,13 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="3">
         <v>2.0</v>
@@ -1545,7 +1557,7 @@
         <v>1.0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1553,13 +1565,13 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -1567,13 +1579,13 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -1581,13 +1593,13 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -1595,13 +1607,13 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23" s="3">
         <v>2.0</v>
@@ -1610,7 +1622,7 @@
         <v>4.0</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -1618,13 +1630,13 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E24" s="3">
         <v>2.0</v>
@@ -1633,7 +1645,7 @@
         <v>6.0</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -1641,13 +1653,13 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -1655,13 +1667,13 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" s="3">
         <v>1.0</v>
@@ -1670,7 +1682,7 @@
         <v>2.0</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -1678,13 +1690,13 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" s="3">
         <v>3.0</v>
@@ -1696,7 +1708,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -1704,13 +1716,13 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -1718,13 +1730,13 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -1732,13 +1744,13 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -1746,13 +1758,13 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E31" s="3">
         <v>3.0</v>
@@ -1764,7 +1776,7 @@
         <v>1.0</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1772,13 +1784,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E32" s="3">
         <v>3.0</v>
@@ -1787,7 +1799,7 @@
         <v>7.0</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -1795,13 +1807,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -1809,13 +1821,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E34" s="3">
         <v>3.0</v>
@@ -1824,7 +1836,7 @@
         <v>6.0</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -1832,13 +1844,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E35" s="3">
         <v>2.0</v>
@@ -1847,7 +1859,7 @@
         <v>6.0</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -1855,13 +1867,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -1869,13 +1881,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -1883,13 +1895,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E38" s="3">
         <v>2.0</v>
@@ -1898,7 +1910,7 @@
         <v>3.0</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -1906,13 +1918,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E39" s="3">
         <v>2.0</v>
@@ -1921,7 +1933,7 @@
         <v>3.0</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -1929,13 +1941,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40" s="3">
         <v>2.0</v>
@@ -1944,7 +1956,7 @@
         <v>5.0</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -1952,13 +1964,13 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -1966,13 +1978,13 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42" s="3">
         <v>1.0</v>
@@ -1981,7 +1993,7 @@
         <v>4.0</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -1989,13 +2001,13 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E43" s="3">
         <v>2.0</v>
@@ -2004,7 +2016,7 @@
         <v>2.0</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -2012,13 +2024,13 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E44" s="3">
         <v>1.0</v>
@@ -2027,7 +2039,7 @@
         <v>2.0</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -2035,13 +2047,13 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
@@ -2049,13 +2061,13 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E46" s="3">
         <v>3.0</v>
@@ -2064,7 +2076,10 @@
         <v>4.0</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
@@ -2072,13 +2087,13 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E47" s="3">
         <v>3.0</v>
@@ -2087,7 +2102,10 @@
         <v>4.0</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
@@ -2095,13 +2113,13 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E48" s="3">
         <v>3.0</v>
@@ -2110,7 +2128,10 @@
         <v>6.0</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
@@ -2118,13 +2139,13 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -2132,13 +2153,13 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E50" s="3">
         <v>2.0</v>
@@ -2150,7 +2171,7 @@
         <v>2.0</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I50" s="3">
         <v>1.0</v>
@@ -2161,13 +2182,13 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E51" s="3">
         <v>2.0</v>
@@ -2179,7 +2200,7 @@
         <v>1.0</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -2187,13 +2208,13 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -2201,13 +2222,13 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -2215,13 +2236,13 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -2229,13 +2250,13 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E55" s="3">
         <v>2.0</v>
@@ -2244,7 +2265,7 @@
         <v>4.0</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -2252,13 +2273,13 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E56" s="3">
         <v>2.0</v>
@@ -2267,7 +2288,7 @@
         <v>6.0</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -2275,13 +2296,13 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
@@ -2289,13 +2310,13 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E58" s="3">
         <v>1.0</v>
@@ -2304,7 +2325,7 @@
         <v>2.0</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -2312,13 +2333,13 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E59" s="3">
         <v>3.0</v>
@@ -2330,7 +2351,7 @@
         <v>1.0</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -2338,13 +2359,13 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
@@ -2352,13 +2373,13 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -2366,13 +2387,13 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
@@ -2380,13 +2401,13 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E63" s="3">
         <v>3.0</v>
@@ -2398,7 +2419,7 @@
         <v>1.0</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -2406,13 +2427,13 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E64" s="3">
         <v>3.0</v>
@@ -2421,7 +2442,7 @@
         <v>7.0</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -2429,13 +2450,13 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
@@ -2443,13 +2464,13 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E66" s="3">
         <v>1.0</v>
@@ -2458,7 +2479,7 @@
         <v>6.0</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -2466,13 +2487,13 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E67" s="3">
         <v>2.0</v>
@@ -2481,7 +2502,7 @@
         <v>6.0</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -2489,13 +2510,13 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -2503,13 +2524,13 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -2517,13 +2538,13 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
@@ -2531,13 +2552,13 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E71" s="3">
         <v>2.0</v>
@@ -2546,7 +2567,7 @@
         <v>3.0</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -2554,13 +2575,13 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E72" s="3">
         <v>2.0</v>
@@ -2569,7 +2590,7 @@
         <v>5.0</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -2577,13 +2598,13 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
@@ -2591,13 +2612,13 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E74" s="3">
         <v>1.0</v>
@@ -2606,7 +2627,7 @@
         <v>3.0</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -2614,13 +2635,13 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E75" s="3">
         <v>2.0</v>
@@ -2629,7 +2650,7 @@
         <v>2.0</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -2637,13 +2658,13 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E76" s="3">
         <v>1.0</v>
@@ -2652,7 +2673,7 @@
         <v>2.0</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -2660,13 +2681,13 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
@@ -2674,13 +2695,13 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E78" s="3">
         <v>3.0</v>
@@ -2689,7 +2710,7 @@
         <v>3.0</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
@@ -2697,13 +2718,13 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E79" s="3">
         <v>3.0</v>
@@ -2712,7 +2733,10 @@
         <v>4.0</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J79" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
@@ -2720,13 +2744,13 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E80" s="3">
         <v>3.0</v>
@@ -2735,7 +2759,10 @@
         <v>6.0</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J80" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
@@ -2743,13 +2770,13 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
@@ -2757,13 +2784,13 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E82" s="3">
         <v>2.0</v>
@@ -2775,7 +2802,7 @@
         <v>2.0</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I82" s="3">
         <v>1.0</v>
@@ -2786,13 +2813,13 @@
         <v>81.0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E83" s="3">
         <v>2.0</v>
@@ -2804,7 +2831,7 @@
         <v>1.0</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
@@ -2812,13 +2839,13 @@
         <v>82.0</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -2826,13 +2853,13 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
@@ -2840,13 +2867,13 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
@@ -2854,13 +2881,13 @@
         <v>85.0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E87" s="3">
         <v>2.0</v>
@@ -2869,7 +2896,7 @@
         <v>4.0</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
@@ -2877,13 +2904,13 @@
         <v>86.0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E88" s="3">
         <v>2.0</v>
@@ -2892,7 +2919,7 @@
         <v>6.0</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -2900,13 +2927,13 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -2914,13 +2941,13 @@
         <v>88.0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E90" s="3">
         <v>1.0</v>
@@ -2929,7 +2956,7 @@
         <v>2.0</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
@@ -2937,13 +2964,13 @@
         <v>89.0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E91" s="3">
         <v>3.0</v>
@@ -2955,7 +2982,7 @@
         <v>1.0</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
@@ -2963,13 +2990,13 @@
         <v>90.0</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
@@ -2977,13 +3004,13 @@
         <v>91.0</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
@@ -2991,13 +3018,13 @@
         <v>92.0</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
@@ -3005,13 +3032,13 @@
         <v>93.0</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E95" s="3">
         <v>3.0</v>
@@ -3023,7 +3050,7 @@
         <v>1.0</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
@@ -3031,13 +3058,13 @@
         <v>94.0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E96" s="3">
         <v>3.0</v>
@@ -3046,7 +3073,7 @@
         <v>7.0</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
@@ -3054,13 +3081,13 @@
         <v>95.0</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
@@ -3068,13 +3095,13 @@
         <v>96.0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E98" s="3">
         <v>1.0</v>
@@ -3083,7 +3110,7 @@
         <v>6.0</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -3091,13 +3118,13 @@
         <v>97.0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E99" s="3">
         <v>2.0</v>
@@ -3106,7 +3133,7 @@
         <v>6.0</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -3114,13 +3141,13 @@
         <v>98.0</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
@@ -3128,13 +3155,13 @@
         <v>99.0</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
@@ -3142,13 +3169,13 @@
         <v>100.0</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
@@ -3156,13 +3183,13 @@
         <v>101.0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E103" s="3">
         <v>2.0</v>
@@ -3171,7 +3198,7 @@
         <v>3.0</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104">
@@ -3179,13 +3206,13 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E104" s="3">
         <v>2.0</v>
@@ -3194,7 +3221,7 @@
         <v>5.0</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105">
@@ -3202,13 +3229,13 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
@@ -3216,13 +3243,13 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E106" s="3">
         <v>1.0</v>
@@ -3231,7 +3258,7 @@
         <v>4.0</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107">
@@ -3239,13 +3266,13 @@
         <v>105.0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E107" s="3">
         <v>2.0</v>
@@ -3254,7 +3281,7 @@
         <v>2.0</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108">
@@ -3262,13 +3289,13 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E108" s="3">
         <v>1.0</v>
@@ -3277,7 +3304,7 @@
         <v>2.0</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109">
@@ -3285,13 +3312,13 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
@@ -3299,13 +3326,13 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E110" s="3">
         <v>3.0</v>
@@ -3314,7 +3341,7 @@
         <v>5.0</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
@@ -3322,13 +3349,13 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E111" s="3">
         <v>3.0</v>
@@ -3337,7 +3364,10 @@
         <v>4.0</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J111" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="112">
@@ -3345,13 +3375,13 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E112" s="3">
         <v>3.0</v>
@@ -3360,7 +3390,10 @@
         <v>6.0</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J112" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="113">
@@ -3368,13 +3401,13 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
@@ -3382,13 +3415,13 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E114" s="3">
         <v>2.0</v>
@@ -3400,7 +3433,7 @@
         <v>2.0</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I114" s="3">
         <v>1.0</v>
@@ -3411,13 +3444,13 @@
         <v>113.0</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E115" s="3">
         <v>2.0</v>
@@ -3429,7 +3462,7 @@
         <v>1.0</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116">
@@ -3437,13 +3470,13 @@
         <v>114.0</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117">
@@ -3451,13 +3484,13 @@
         <v>115.0</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118">
@@ -3465,13 +3498,13 @@
         <v>116.0</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119">
@@ -3479,13 +3512,13 @@
         <v>117.0</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E119" s="3">
         <v>2.0</v>
@@ -3494,7 +3527,7 @@
         <v>4.0</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
@@ -3502,13 +3535,13 @@
         <v>118.0</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E120" s="3">
         <v>2.0</v>
@@ -3517,7 +3550,7 @@
         <v>6.0</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121">
@@ -3525,13 +3558,13 @@
         <v>119.0</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122">
@@ -3539,13 +3572,13 @@
         <v>120.0</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E122" s="3">
         <v>1.0</v>
@@ -3554,7 +3587,7 @@
         <v>2.0</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123">
@@ -3562,13 +3595,13 @@
         <v>121.0</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E123" s="3">
         <v>3.0</v>
@@ -3580,7 +3613,7 @@
         <v>1.0</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124">
@@ -3588,13 +3621,13 @@
         <v>122.0</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125">
@@ -3602,13 +3635,13 @@
         <v>123.0</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126">
@@ -3616,13 +3649,13 @@
         <v>124.0</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127">
@@ -3630,13 +3663,13 @@
         <v>125.0</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E127" s="3">
         <v>3.0</v>
@@ -3648,7 +3681,7 @@
         <v>1.0</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128">
@@ -3656,13 +3689,13 @@
         <v>126.0</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E128" s="3">
         <v>3.0</v>
@@ -3671,7 +3704,7 @@
         <v>7.0</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129">
@@ -3679,13 +3712,13 @@
         <v>127.0</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
@@ -3693,13 +3726,13 @@
         <v>128.0</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131">
@@ -3707,13 +3740,13 @@
         <v>129.0</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E131" s="3">
         <v>2.0</v>
@@ -3722,7 +3755,10 @@
         <v>6.0</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J131" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="132">
@@ -3730,13 +3766,13 @@
         <v>130.0</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133">
@@ -3744,13 +3780,13 @@
         <v>131.0</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134">
@@ -3758,13 +3794,13 @@
         <v>132.0</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E134" s="3">
         <v>2.0</v>
@@ -3773,7 +3809,10 @@
         <v>3.0</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J134" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="135">
@@ -3781,13 +3820,13 @@
         <v>133.0</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E135" s="3">
         <v>2.0</v>
@@ -3796,7 +3835,10 @@
         <v>3.0</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J135" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="136">
@@ -3804,13 +3846,13 @@
         <v>134.0</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E136" s="3">
         <v>2.0</v>
@@ -3819,7 +3861,10 @@
         <v>3.0</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J136" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="137">
@@ -3827,13 +3872,13 @@
         <v>135.0</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138">
@@ -3841,13 +3886,13 @@
         <v>136.0</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E138" s="3">
         <v>1.0</v>
@@ -3856,7 +3901,7 @@
         <v>2.0</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139">
@@ -3864,13 +3909,13 @@
         <v>137.0</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140">
@@ -3878,13 +3923,13 @@
         <v>138.0</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E140" s="3">
         <v>1.0</v>
@@ -3893,7 +3938,7 @@
         <v>2.0</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141">
@@ -3901,13 +3946,13 @@
         <v>139.0</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
@@ -3915,13 +3960,13 @@
         <v>140.0</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E142" s="3">
         <v>3.0</v>
@@ -3930,7 +3975,10 @@
         <v>4.0</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J142" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="143">
@@ -3938,13 +3986,13 @@
         <v>141.0</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E143" s="3">
         <v>3.0</v>
@@ -3953,7 +4001,10 @@
         <v>4.0</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J143" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="144">
@@ -3961,13 +4012,13 @@
         <v>142.0</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E144" s="3">
         <v>3.0</v>
@@ -3976,7 +4027,10 @@
         <v>4.0</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J144" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="145">
@@ -3984,13 +4038,13 @@
         <v>143.0</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146">
@@ -3998,13 +4052,13 @@
         <v>144.0</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E146" s="3">
         <v>2.0</v>
@@ -4016,7 +4070,7 @@
         <v>2.0</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I146" s="3">
         <v>1.0</v>
@@ -4027,13 +4081,13 @@
         <v>145.0</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E147" s="3">
         <v>2.0</v>
@@ -4042,7 +4096,10 @@
         <v>6.0</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J147" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="148">
@@ -4050,13 +4107,13 @@
         <v>146.0</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
@@ -4064,13 +4121,13 @@
         <v>147.0</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150">
@@ -4078,13 +4135,13 @@
         <v>148.0</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E150" s="3">
         <v>2.0</v>
@@ -4093,7 +4150,10 @@
         <v>4.0</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J150" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="151">
@@ -4101,13 +4161,13 @@
         <v>149.0</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E151" s="3">
         <v>2.0</v>
@@ -4116,7 +4176,10 @@
         <v>4.0</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J151" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="152">
@@ -4124,13 +4187,13 @@
         <v>150.0</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E152" s="3">
         <v>2.0</v>
@@ -4139,7 +4202,10 @@
         <v>4.0</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J152" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="153">
@@ -4147,13 +4213,13 @@
         <v>151.0</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154">
@@ -4161,13 +4227,13 @@
         <v>152.0</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E154" s="3">
         <v>1.0</v>
@@ -4176,7 +4242,7 @@
         <v>2.0</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155">
@@ -4184,13 +4250,13 @@
         <v>153.0</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E155" s="3">
         <v>3.0</v>
@@ -4199,7 +4265,10 @@
         <v>5.0</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J155" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="156">
@@ -4207,13 +4276,13 @@
         <v>154.0</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E156" s="3">
         <v>1.0</v>
@@ -4222,7 +4291,7 @@
         <v>2.0</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157">
@@ -4230,13 +4299,13 @@
         <v>155.0</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E157" s="3">
         <v>1.0</v>
@@ -4245,7 +4314,7 @@
         <v>2.0</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158">
@@ -4253,13 +4322,13 @@
         <v>156.0</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159">
@@ -4267,13 +4336,13 @@
         <v>157.0</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E159" s="3">
         <v>3.0</v>
@@ -4282,7 +4351,10 @@
         <v>5.0</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J159" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="160">
@@ -4290,13 +4362,13 @@
         <v>158.0</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161">
@@ -4304,13 +4376,13 @@
         <v>159.0</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162">
@@ -4318,13 +4390,13 @@
         <v>160.0</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E162" s="3">
         <v>2.0</v>
@@ -4333,7 +4405,10 @@
         <v>2.0</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J162" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="163">
@@ -4341,13 +4416,13 @@
         <v>161.0</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E163" s="3">
         <v>2.0</v>
@@ -4356,7 +4431,10 @@
         <v>6.0</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J163" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="164">
@@ -4364,13 +4442,13 @@
         <v>162.0</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E164" s="3">
         <v>2.0</v>
@@ -4379,7 +4457,10 @@
         <v>2.0</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J164" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="165">
@@ -4387,13 +4468,13 @@
         <v>163.0</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166">
@@ -4401,13 +4482,13 @@
         <v>164.0</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E166" s="3">
         <v>2.0</v>
@@ -4416,7 +4497,10 @@
         <v>3.0</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J166" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="167">
@@ -4424,13 +4508,13 @@
         <v>165.0</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E167" s="3">
         <v>2.0</v>
@@ -4439,7 +4523,10 @@
         <v>3.0</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J167" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="168">
@@ -4447,13 +4534,13 @@
         <v>166.0</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E168" s="3">
         <v>2.0</v>
@@ -4462,7 +4549,10 @@
         <v>3.0</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J168" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="169">
@@ -4470,13 +4560,13 @@
         <v>167.0</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170">
@@ -4484,13 +4574,13 @@
         <v>168.0</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E170" s="3">
         <v>1.0</v>
@@ -4499,7 +4589,7 @@
         <v>2.0</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171">
@@ -4507,13 +4597,13 @@
         <v>169.0</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E171" s="3">
         <v>2.0</v>
@@ -4522,7 +4612,10 @@
         <v>2.0</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J171" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="172">
@@ -4530,13 +4623,13 @@
         <v>170.0</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E172" s="3">
         <v>1.0</v>
@@ -4545,7 +4638,7 @@
         <v>2.0</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173">
@@ -4553,13 +4646,13 @@
         <v>171.0</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174">
@@ -4567,13 +4660,13 @@
         <v>172.0</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E174" s="3">
         <v>3.0</v>
@@ -4582,7 +4675,10 @@
         <v>4.0</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J174" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="175">
@@ -4590,13 +4686,13 @@
         <v>173.0</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E175" s="3">
         <v>3.0</v>
@@ -4605,7 +4701,10 @@
         <v>4.0</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J175" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="176">
@@ -4613,13 +4712,13 @@
         <v>174.0</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E176" s="3">
         <v>3.0</v>
@@ -4628,7 +4727,10 @@
         <v>4.0</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J176" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="177">
@@ -4636,13 +4738,13 @@
         <v>175.0</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178">
@@ -4650,13 +4752,13 @@
         <v>176.0</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E178" s="3">
         <v>2.0</v>
@@ -4668,7 +4770,7 @@
         <v>2.0</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I178" s="3">
         <v>1.0</v>
@@ -4679,13 +4781,13 @@
         <v>177.0</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E179" s="3">
         <v>2.0</v>
@@ -4697,7 +4799,10 @@
         <v>1.0</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J179" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="180">
@@ -4705,13 +4810,13 @@
         <v>178.0</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181">
@@ -4719,13 +4824,13 @@
         <v>179.0</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182">
@@ -4733,13 +4838,13 @@
         <v>180.0</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E182" s="3">
         <v>2.0</v>
@@ -4748,7 +4853,10 @@
         <v>4.0</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J182" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="183">
@@ -4756,13 +4864,13 @@
         <v>181.0</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E183" s="3">
         <v>2.0</v>
@@ -4771,7 +4879,10 @@
         <v>4.0</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J183" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="184">
@@ -4779,13 +4890,13 @@
         <v>182.0</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E184" s="3">
         <v>2.0</v>
@@ -4794,7 +4905,10 @@
         <v>4.0</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J184" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="185">
@@ -4802,13 +4916,13 @@
         <v>183.0</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186">
@@ -4816,13 +4930,13 @@
         <v>184.0</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E186" s="3">
         <v>1.0</v>
@@ -4831,7 +4945,7 @@
         <v>2.0</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187">
@@ -4839,13 +4953,13 @@
         <v>185.0</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E187" s="3">
         <v>3.0</v>
@@ -4857,7 +4971,10 @@
         <v>1.0</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J187" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="188">
@@ -4865,13 +4982,13 @@
         <v>186.0</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E188" s="3">
         <v>1.0</v>
@@ -4880,7 +4997,7 @@
         <v>2.0</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189">
@@ -4888,13 +5005,13 @@
         <v>187.0</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190">
@@ -4902,13 +5019,13 @@
         <v>188.0</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E190" s="3">
         <v>3.0</v>
@@ -4920,7 +5037,10 @@
         <v>1.0</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J190" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="191">
@@ -4928,13 +5048,13 @@
         <v>189.0</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E191" s="3">
         <v>3.0</v>
@@ -4946,7 +5066,10 @@
         <v>1.0</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J191" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="192">
@@ -4954,13 +5077,13 @@
         <v>190.0</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E192" s="3">
         <v>3.0</v>
@@ -4972,7 +5095,10 @@
         <v>1.0</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J192" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="193">
@@ -4980,13 +5106,13 @@
         <v>191.0</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194">
@@ -4994,13 +5120,13 @@
         <v>192.0</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E194" s="3">
         <v>2.0</v>
@@ -5009,7 +5135,7 @@
         <v>2.0</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195">
@@ -5017,13 +5143,13 @@
         <v>193.0</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E195" s="3">
         <v>2.0</v>
@@ -5032,7 +5158,7 @@
         <v>6.0</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196">
@@ -5040,13 +5166,13 @@
         <v>194.0</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197">
@@ -5054,13 +5180,13 @@
         <v>195.0</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198">
@@ -5068,13 +5194,13 @@
         <v>196.0</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E198" s="3">
         <v>2.0</v>
@@ -5083,7 +5209,7 @@
         <v>3.0</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199">
@@ -5091,13 +5217,13 @@
         <v>197.0</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E199" s="3">
         <v>2.0</v>
@@ -5106,7 +5232,7 @@
         <v>3.0</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200">
@@ -5114,13 +5240,13 @@
         <v>198.0</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E200" s="3">
         <v>2.0</v>
@@ -5129,7 +5255,7 @@
         <v>5.0</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201">
@@ -5137,13 +5263,13 @@
         <v>199.0</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202">
@@ -5151,13 +5277,13 @@
         <v>200.0</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E202" s="3">
         <v>1.0</v>
@@ -5166,7 +5292,7 @@
         <v>2.0</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203">
@@ -5174,13 +5300,13 @@
         <v>201.0</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E203" s="3">
         <v>2.0</v>
@@ -5189,7 +5315,7 @@
         <v>2.0</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204">
@@ -5197,13 +5323,13 @@
         <v>202.0</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E204" s="3">
         <v>1.0</v>
@@ -5212,7 +5338,7 @@
         <v>2.0</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205">
@@ -5220,13 +5346,13 @@
         <v>203.0</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206">
@@ -5234,13 +5360,13 @@
         <v>204.0</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E206" s="3">
         <v>3.0</v>
@@ -5249,7 +5375,10 @@
         <v>4.0</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J206" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="207">
@@ -5257,13 +5386,13 @@
         <v>205.0</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E207" s="3">
         <v>3.0</v>
@@ -5272,7 +5401,10 @@
         <v>4.0</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J207" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="208">
@@ -5280,13 +5412,13 @@
         <v>206.0</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E208" s="3">
         <v>3.0</v>
@@ -5295,7 +5427,10 @@
         <v>6.0</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J208" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="209">
@@ -5303,13 +5438,13 @@
         <v>207.0</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210">
@@ -5317,13 +5452,13 @@
         <v>208.0</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E210" s="3">
         <v>2.0</v>
@@ -5335,7 +5470,7 @@
         <v>2.0</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I210" s="3">
         <v>1.0</v>
@@ -5346,13 +5481,13 @@
         <v>209.0</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E211" s="3">
         <v>2.0</v>
@@ -5364,7 +5499,7 @@
         <v>1.0</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212">
@@ -5372,13 +5507,13 @@
         <v>210.0</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213">
@@ -5386,13 +5521,13 @@
         <v>211.0</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214">
@@ -5400,13 +5535,13 @@
         <v>212.0</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215">
@@ -5414,13 +5549,13 @@
         <v>213.0</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E215" s="3">
         <v>2.0</v>
@@ -5429,7 +5564,7 @@
         <v>4.0</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216">
@@ -5437,13 +5572,13 @@
         <v>214.0</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E216" s="3">
         <v>2.0</v>
@@ -5452,7 +5587,7 @@
         <v>6.0</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217">
@@ -5460,13 +5595,13 @@
         <v>215.0</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218">
@@ -5474,13 +5609,13 @@
         <v>216.0</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E218" s="3">
         <v>1.0</v>
@@ -5489,7 +5624,7 @@
         <v>2.0</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219">
@@ -5497,13 +5632,13 @@
         <v>217.0</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E219" s="3">
         <v>3.0</v>
@@ -5515,7 +5650,7 @@
         <v>1.0</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220">
@@ -5523,13 +5658,13 @@
         <v>218.0</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="221">
@@ -5537,13 +5672,13 @@
         <v>219.0</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222">
@@ -5551,13 +5686,13 @@
         <v>220.0</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223">
@@ -5565,13 +5700,13 @@
         <v>221.0</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E223" s="3">
         <v>3.0</v>
@@ -5583,7 +5718,7 @@
         <v>1.0</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224">
@@ -5591,13 +5726,13 @@
         <v>222.0</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E224" s="3">
         <v>3.0</v>
@@ -5606,7 +5741,7 @@
         <v>7.0</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225">
@@ -5614,13 +5749,13 @@
         <v>223.0</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226">
@@ -5628,13 +5763,13 @@
         <v>224.0</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E226" s="3">
         <v>2.0</v>
@@ -5643,7 +5778,7 @@
         <v>2.0</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227">
@@ -5651,13 +5786,13 @@
         <v>225.0</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E227" s="3">
         <v>2.0</v>
@@ -5666,7 +5801,7 @@
         <v>6.0</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228">
@@ -5674,13 +5809,13 @@
         <v>226.0</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229">
@@ -5688,13 +5823,13 @@
         <v>227.0</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230">
@@ -5702,13 +5837,13 @@
         <v>228.0</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E230" s="3">
         <v>2.0</v>
@@ -5717,7 +5852,7 @@
         <v>3.0</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231">
@@ -5725,13 +5860,13 @@
         <v>229.0</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E231" s="3">
         <v>2.0</v>
@@ -5740,7 +5875,7 @@
         <v>3.0</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232">
@@ -5748,13 +5883,13 @@
         <v>230.0</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E232" s="3">
         <v>2.0</v>
@@ -5763,7 +5898,7 @@
         <v>5.0</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233">
@@ -5771,13 +5906,13 @@
         <v>231.0</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="234">
@@ -5785,13 +5920,13 @@
         <v>232.0</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E234" s="3">
         <v>1.0</v>
@@ -5800,7 +5935,7 @@
         <v>2.0</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235">
@@ -5808,13 +5943,13 @@
         <v>233.0</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E235" s="3">
         <v>2.0</v>
@@ -5823,7 +5958,7 @@
         <v>2.0</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236">
@@ -5831,13 +5966,13 @@
         <v>234.0</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E236" s="3">
         <v>1.0</v>
@@ -5846,7 +5981,7 @@
         <v>2.0</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237">
@@ -5854,13 +5989,13 @@
         <v>235.0</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="238">
@@ -5868,13 +6003,13 @@
         <v>236.0</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E238" s="3">
         <v>3.0</v>
@@ -5883,7 +6018,10 @@
         <v>4.0</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J238" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="239">
@@ -5891,13 +6029,13 @@
         <v>237.0</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E239" s="3">
         <v>3.0</v>
@@ -5906,7 +6044,10 @@
         <v>4.0</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J239" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="240">
@@ -5914,13 +6055,13 @@
         <v>238.0</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E240" s="3">
         <v>3.0</v>
@@ -5929,7 +6070,10 @@
         <v>6.0</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J240" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="241">
@@ -5937,13 +6081,13 @@
         <v>239.0</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242">
@@ -5951,13 +6095,13 @@
         <v>240.0</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E242" s="3">
         <v>2.0</v>
@@ -5969,7 +6113,7 @@
         <v>2.0</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I242" s="3">
         <v>1.0</v>
@@ -5980,13 +6124,13 @@
         <v>241.0</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E243" s="3">
         <v>2.0</v>
@@ -5998,7 +6142,7 @@
         <v>1.0</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244">
@@ -6006,13 +6150,13 @@
         <v>242.0</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="245">
@@ -6020,13 +6164,13 @@
         <v>243.0</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246">
@@ -6034,13 +6178,13 @@
         <v>244.0</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247">
@@ -6048,13 +6192,13 @@
         <v>245.0</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E247" s="3">
         <v>2.0</v>
@@ -6063,7 +6207,7 @@
         <v>4.0</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248">
@@ -6071,13 +6215,13 @@
         <v>246.0</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E248" s="3">
         <v>2.0</v>
@@ -6086,7 +6230,7 @@
         <v>6.0</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249">
@@ -6094,13 +6238,13 @@
         <v>247.0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="250">
@@ -6108,13 +6252,13 @@
         <v>248.0</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E250" s="3">
         <v>1.0</v>
@@ -6123,7 +6267,7 @@
         <v>2.0</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251">
@@ -6131,13 +6275,13 @@
         <v>249.0</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E251" s="3">
         <v>3.0</v>
@@ -6149,7 +6293,7 @@
         <v>1.0</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252">
@@ -6157,13 +6301,13 @@
         <v>250.0</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="253">
@@ -6171,13 +6315,13 @@
         <v>251.0</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="254">
@@ -6185,13 +6329,13 @@
         <v>252.0</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="255">
@@ -6199,13 +6343,13 @@
         <v>253.0</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E255" s="3">
         <v>3.0</v>
@@ -6217,7 +6361,7 @@
         <v>1.0</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256">
@@ -6225,13 +6369,13 @@
         <v>254.0</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E256" s="3">
         <v>3.0</v>
@@ -6240,7 +6384,7 @@
         <v>7.0</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257">
@@ -6248,13 +6392,13 @@
         <v>255.0</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
